--- a/UseCaseScenariji/PrijavaKrivicnogDjela.xlsx
+++ b/UseCaseScenariji/PrijavaKrivicnogDjela.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Građanin</t>
   </si>
@@ -32,19 +32,76 @@
     <t>Inspektor</t>
   </si>
   <si>
-    <t>1.Prijavljuje krivično djelo</t>
-  </si>
-  <si>
-    <t>2.Prima obavijest i sa službenim autom pristupa lokaciji na kojoj je počinjeno krivično djela</t>
+    <t xml:space="preserve"> 3. Unosi podatke o krivičnom dijelu</t>
+  </si>
+  <si>
+    <t>Naziv</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>Preduvjeti</t>
+  </si>
+  <si>
+    <t>Posljedice - uspješan završetak</t>
+  </si>
+  <si>
+    <t>Posljedice - neuspješan završetak</t>
+  </si>
+  <si>
+    <t>Primarni akteri</t>
+  </si>
+  <si>
+    <t>Glavni tok</t>
   </si>
   <si>
     <t>Prijava krivičnog djela</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3. Unosi podatke o krivičnom dijelu</t>
-  </si>
-  <si>
-    <t>4. Inspektor prima podatke o krivičnom dijelu, te vrši selekciju krivičnog dijela za obradu</t>
+    <t>Građanin koji svjedoči nekom prekršaju, ima mogućnost da isti prijavi preko aplikacije. Ukoliko je riječ o nepropisnom parkiranju, slikat će auto, ukoliko je riječ o remećenju javnog reda i mira, sliakt če lokaciju i pojedince, ili će samo unijeti podatke o lokaciji i izgledu pojedinaca</t>
+  </si>
+  <si>
+    <t>Građanin se mora nalaziti neposredno do mjesta činjenja prekršaja</t>
+  </si>
+  <si>
+    <t>Momentalno dobiva odgovor od centrale(inspektora ili policajca) koji dolaze na lice mjesta u što kraćem vremenskom intervalu.</t>
+  </si>
+  <si>
+    <t>Nedolazak policijskih službenika na vrijeme, ili pad sistema</t>
+  </si>
+  <si>
+    <t>Građanin, službeno lice(policajac ili inspektor)</t>
+  </si>
+  <si>
+    <t>Završava se dolaskom službenog lica na mjesto događaja krivičnog djela</t>
+  </si>
+  <si>
+    <t>PRIJAVA KRIVIČNOG DJELA - Uspješna realizacija scenarija</t>
+  </si>
+  <si>
+    <t>PRIJAVA KRIVIČNOG DJELA - neuspješna realizacija scenarija</t>
+  </si>
+  <si>
+    <t>2. Prima obavijest ali ne uspijeva doći do lokacije gdje je počinjeno krivično djelo</t>
+  </si>
+  <si>
+    <t>3. Obavještava građanina, da što je moguće pažljivije osmotri i opiše situaciju,jer će ti podaci koristiti pri istrazi.</t>
+  </si>
+  <si>
+    <t>1. Prijavljuje krivično djelo</t>
+  </si>
+  <si>
+    <t>2. Prima obavijest i sa službenim autom pristupa lokaciji na kojoj je počinjeno krivično djela</t>
+  </si>
+  <si>
+    <t>4. Privodi počinioce krivičnog djela ukoliko ih zatekne</t>
+  </si>
+  <si>
+    <t>5. Inspektor prima podatke o krivičnom dijelu, te ih selektuje za buduću obradu</t>
+  </si>
+  <si>
+    <t>4. Inspektor prima podatke o krivičnom dijelu, te ih selektuje za istragu, jer počinioci nisu uhvaćeni.</t>
   </si>
 </sst>
 </file>
@@ -68,15 +125,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,34 +165,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,65 +533,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="0.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C14" s="14"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
